--- a/reproduced_etth1.xlsx
+++ b/reproduced_etth1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmoho\Documents\FRI\4_letnik_1_semester\SU\Projekt\SU_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14695F7C-4597-4904-B476-0D2B92CE9522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E016A-0ED5-41CE-913B-71C3E0CDDABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{974C43A1-5A08-468E-B900-1490D4B0EF98}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/reproduced_etth1.xlsx
+++ b/reproduced_etth1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmoho\Documents\FRI\4_letnik_1_semester\SU\Projekt\SU_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E016A-0ED5-41CE-913B-71C3E0CDDABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A51C5FE-8191-444B-8AC3-9573FFC3B472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{974C43A1-5A08-468E-B900-1490D4B0EF98}"/>
+    <workbookView xWindow="7884" yWindow="-336" windowWidth="17280" windowHeight="9624" xr2:uid="{974C43A1-5A08-468E-B900-1490D4B0EF98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +688,7 @@
         <v>9.1800000000000007E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>0.36830000000000002</v>
+        <v>0.16769999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>0.2457</v>
       </c>
       <c r="G14" s="2">
-        <v>0.51</v>
+        <v>0.34260000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -784,13 +784,40 @@
       <c r="B19" t="s">
         <v>0</v>
       </c>
+      <c r="C19">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.5887</v>
+      </c>
+      <c r="G19">
+        <v>3.5221</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.19620000000000001</v>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.1547</v>
+      </c>
+      <c r="E20">
+        <v>0.33</v>
+      </c>
+      <c r="F20">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="G20">
+        <v>1.5787</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -823,10 +850,40 @@
       <c r="B23" t="s">
         <v>0</v>
       </c>
+      <c r="C23">
+        <v>1.141</v>
+      </c>
+      <c r="D23">
+        <v>0.94</v>
+      </c>
+      <c r="E23">
+        <v>0.879</v>
+      </c>
+      <c r="F23">
+        <v>0.86</v>
+      </c>
+      <c r="G23">
+        <v>1.254</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E24">
+        <v>0.9</v>
+      </c>
+      <c r="F24">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="G24">
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>
